--- a/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stuPractice.xlsx
+++ b/pengxiang-edu-java/pengxiangEDU/src/main/resources/static/file/stuPractice.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>身份证号</t>
+  </si>
   <si>
     <t>学号</t>
   </si>
@@ -59,11 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -712,14 +716,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,267 +1054,272 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="3"/>
   <cols>
+    <col min="4" max="6" width="20.625" style="1"/>
     <col min="29" max="29" width="25.625" customWidth="1"/>
     <col min="48" max="49" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:55">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:55">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <v>44181</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:55">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:55">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
